--- a/Mifos Automation Excels/Client/3081-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-ONTIME-OVERDUE-FEE-%LOANAMT+INT-Regular-UPFRONT-Newcreateloan.xlsx
+++ b/Mifos Automation Excels/Client/3081-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-ONTIME-OVERDUE-FEE-%LOANAMT+INT-Regular-UPFRONT-Newcreateloan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="NewLoanInput" sheetId="5" r:id="rId1"/>
@@ -179,7 +179,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -191,14 +191,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
@@ -283,7 +275,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -291,11 +283,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="15" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -312,9 +304,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -620,7 +609,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -760,7 +749,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD15"/>
+      <selection sqref="A1:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -854,7 +843,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
-        <v>200</v>
+        <v>17.760000000000002</v>
       </c>
       <c r="B5" s="12">
         <v>0</v>
@@ -866,10 +855,10 @@
         <v>0</v>
       </c>
       <c r="E5" s="12">
-        <v>200</v>
+        <v>17.760000000000002</v>
       </c>
       <c r="F5" s="12">
-        <v>200</v>
+        <v>17.760000000000002</v>
       </c>
     </row>
   </sheetData>
@@ -882,7 +871,7 @@
   <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD15"/>
+      <selection sqref="A1:P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1008,10 +997,10 @@
         <v>0</v>
       </c>
       <c r="J3" s="12">
-        <v>100</v>
+        <v>8.8800000000000008</v>
       </c>
       <c r="K3" s="12">
-        <v>987.72</v>
+        <v>896.6</v>
       </c>
       <c r="L3" s="12">
         <v>0</v>
@@ -1026,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="P3" s="12">
-        <v>987.72</v>
+        <v>896.6</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -1054,10 +1043,10 @@
         <v>0</v>
       </c>
       <c r="J4" s="12">
-        <v>100</v>
+        <v>8.8800000000000008</v>
       </c>
       <c r="K4" s="12">
-        <v>987.72</v>
+        <v>896.6</v>
       </c>
       <c r="L4" s="12">
         <v>0</v>
@@ -1072,7 +1061,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="12">
-        <v>987.72</v>
+        <v>896.6</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -1543,10 +1532,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A1:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1564,7 +1553,7 @@
     <col min="11" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
@@ -1596,111 +1585,105 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
-        <v>180</v>
+        <v>68</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>27</v>
       </c>
       <c r="C2" s="13">
-        <v>42095</v>
+        <v>42064</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>50</v>
       </c>
       <c r="E2" s="12">
-        <v>101.92</v>
+        <v>8.8800000000000008</v>
       </c>
       <c r="F2" s="12">
         <v>0</v>
       </c>
       <c r="G2" s="12">
-        <v>101.92</v>
+        <v>0</v>
       </c>
       <c r="H2" s="12">
         <v>0</v>
       </c>
       <c r="I2" s="12">
-        <v>0</v>
+        <v>8.8800000000000008</v>
       </c>
       <c r="J2" s="12">
         <v>0</v>
       </c>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
-        <v>179</v>
+        <v>67</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>27</v>
       </c>
       <c r="C3" s="13">
-        <v>42064</v>
+        <v>42036</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>50</v>
       </c>
       <c r="E3" s="12">
-        <v>92.05</v>
+        <v>8.8800000000000008</v>
       </c>
       <c r="F3" s="12">
         <v>0</v>
       </c>
       <c r="G3" s="12">
-        <v>92.05</v>
+        <v>0</v>
       </c>
       <c r="H3" s="12">
         <v>0</v>
       </c>
       <c r="I3" s="12">
-        <v>100</v>
+        <v>8.8800000000000008</v>
       </c>
       <c r="J3" s="12">
         <v>0</v>
       </c>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
-        <v>178</v>
+        <v>57</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>27</v>
       </c>
       <c r="C4" s="13">
-        <v>42036</v>
+        <v>42005</v>
       </c>
       <c r="D4" s="12" t="s">
         <v>50</v>
       </c>
       <c r="E4" s="12">
-        <v>101.92</v>
+        <v>685.07</v>
       </c>
       <c r="F4" s="12">
         <v>0</v>
       </c>
       <c r="G4" s="12">
-        <v>101.92</v>
+        <v>685.07</v>
       </c>
       <c r="H4" s="12">
         <v>0</v>
       </c>
       <c r="I4" s="12">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J4" s="12">
         <v>0</v>
       </c>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
-        <v>177</v>
+        <v>56</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>27</v>
@@ -1729,8 +1712,6 @@
       <c r="J5" s="14">
         <v>10000</v>
       </c>
-      <c r="K5"/>
-      <c r="L5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Mifos Automation Excels/Client/3081-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-ONTIME-OVERDUE-FEE-%LOANAMT+INT-Regular-UPFRONT-Newcreateloan.xlsx
+++ b/Mifos Automation Excels/Client/3081-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-ONTIME-OVERDUE-FEE-%LOANAMT+INT-Regular-UPFRONT-Newcreateloan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="NewLoanInput" sheetId="5" r:id="rId1"/>
@@ -868,10 +868,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:P14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -889,12 +889,13 @@
     <col min="11" max="11" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="4.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" customWidth="1"/>
+    <col min="15" max="15" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -934,17 +935,18 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="1"/>
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="12"/>
       <c r="B2" s="12"/>
       <c r="C2" s="13">
@@ -971,8 +973,9 @@
       <c r="N2" s="12"/>
       <c r="O2" s="12"/>
       <c r="P2" s="12"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q2" s="12"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>1</v>
       </c>
@@ -1008,17 +1011,18 @@
       <c r="M3" s="12">
         <v>0</v>
       </c>
-      <c r="N3" s="12">
-        <v>0</v>
-      </c>
+      <c r="N3" s="12"/>
       <c r="O3" s="12">
         <v>0</v>
       </c>
       <c r="P3" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="12">
         <v>896.6</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>2</v>
       </c>
@@ -1054,17 +1058,18 @@
       <c r="M4" s="12">
         <v>0</v>
       </c>
-      <c r="N4" s="12">
-        <v>0</v>
-      </c>
+      <c r="N4" s="12"/>
       <c r="O4" s="12">
         <v>0</v>
       </c>
       <c r="P4" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="12">
         <v>896.6</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>3</v>
       </c>
@@ -1100,17 +1105,18 @@
       <c r="M5" s="12">
         <v>0</v>
       </c>
-      <c r="N5" s="12">
-        <v>0</v>
-      </c>
+      <c r="N5" s="12"/>
       <c r="O5" s="12">
         <v>0</v>
       </c>
       <c r="P5" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="12">
         <v>887.72</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>4</v>
       </c>
@@ -1146,17 +1152,18 @@
       <c r="M6" s="12">
         <v>0</v>
       </c>
-      <c r="N6" s="12">
-        <v>0</v>
-      </c>
+      <c r="N6" s="12"/>
       <c r="O6" s="12">
         <v>0</v>
       </c>
       <c r="P6" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="12">
         <v>887.72</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>5</v>
       </c>
@@ -1192,17 +1199,18 @@
       <c r="M7" s="12">
         <v>0</v>
       </c>
-      <c r="N7" s="12">
-        <v>0</v>
-      </c>
+      <c r="N7" s="12"/>
       <c r="O7" s="12">
         <v>0</v>
       </c>
       <c r="P7" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="12">
         <v>887.72</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>6</v>
       </c>
@@ -1238,17 +1246,18 @@
       <c r="M8" s="12">
         <v>0</v>
       </c>
-      <c r="N8" s="12">
-        <v>0</v>
-      </c>
+      <c r="N8" s="12"/>
       <c r="O8" s="12">
         <v>0</v>
       </c>
       <c r="P8" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="12">
         <v>887.72</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>7</v>
       </c>
@@ -1284,17 +1293,18 @@
       <c r="M9" s="12">
         <v>0</v>
       </c>
-      <c r="N9" s="12">
-        <v>0</v>
-      </c>
+      <c r="N9" s="12"/>
       <c r="O9" s="12">
         <v>0</v>
       </c>
       <c r="P9" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="12">
         <v>887.72</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>8</v>
       </c>
@@ -1330,17 +1340,18 @@
       <c r="M10" s="12">
         <v>0</v>
       </c>
-      <c r="N10" s="12">
-        <v>0</v>
-      </c>
+      <c r="N10" s="12"/>
       <c r="O10" s="12">
         <v>0</v>
       </c>
       <c r="P10" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="12">
         <v>887.72</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>9</v>
       </c>
@@ -1376,17 +1387,18 @@
       <c r="M11" s="12">
         <v>0</v>
       </c>
-      <c r="N11" s="12">
-        <v>0</v>
-      </c>
+      <c r="N11" s="12"/>
       <c r="O11" s="12">
         <v>0</v>
       </c>
       <c r="P11" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="12">
         <v>887.72</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>10</v>
       </c>
@@ -1422,17 +1434,18 @@
       <c r="M12" s="12">
         <v>0</v>
       </c>
-      <c r="N12" s="12">
-        <v>0</v>
-      </c>
+      <c r="N12" s="12"/>
       <c r="O12" s="12">
         <v>0</v>
       </c>
       <c r="P12" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="12">
         <v>887.72</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <v>11</v>
       </c>
@@ -1468,17 +1481,18 @@
       <c r="M13" s="12">
         <v>0</v>
       </c>
-      <c r="N13" s="12">
-        <v>0</v>
-      </c>
+      <c r="N13" s="12"/>
       <c r="O13" s="12">
         <v>0</v>
       </c>
       <c r="P13" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="12">
         <v>887.72</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <v>12</v>
       </c>
@@ -1514,13 +1528,14 @@
       <c r="M14" s="12">
         <v>0</v>
       </c>
-      <c r="N14" s="12">
-        <v>0</v>
-      </c>
+      <c r="N14" s="12"/>
       <c r="O14" s="12">
         <v>0</v>
       </c>
       <c r="P14" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="12">
         <v>920.15</v>
       </c>
     </row>
@@ -1534,7 +1549,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A1:XFD12"/>
     </sheetView>
   </sheetViews>
